--- a/予定・進捗.xlsx
+++ b/予定・進捗.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wiki\WEB-INF\src\wiki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11685"/>
+    <workbookView xWindow="1400" yWindow="0" windowWidth="20200" windowHeight="10640"/>
   </bookViews>
   <sheets>
     <sheet name="出席データ" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
   <si>
     <t>池田</t>
     <rPh sb="0" eb="2">
@@ -262,15 +262,69 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>09:30~10:50</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>11:00~16:30</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ガイダンス・エラーページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>警察</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中止</t>
+    <rPh sb="0" eb="2">
+      <t>チュウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VSDL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特別課題</t>
+    <rPh sb="0" eb="2">
+      <t>トクベツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>github:○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>09:30~16:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特別課題:github
+CSS</t>
+    <rPh sb="0" eb="2">
+      <t>トクベツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カダイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -317,7 +371,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -332,6 +386,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,36 +670,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="8" max="8" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -667,13 +724,16 @@
       <c r="H3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>42747</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -694,26 +754,53 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>42748</v>
       </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
       <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>42752</v>
       </c>
+      <c r="B6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
       <c r="E6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>42753</v>
       </c>
@@ -721,23 +808,23 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>42754</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>42759</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>42760</v>
       </c>
@@ -745,15 +832,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>42761</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>42801</v>
       </c>
@@ -779,9 +866,9 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -798,7 +885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -818,7 +905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -838,7 +925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -858,7 +945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -878,7 +965,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -898,7 +985,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
         <v>18</v>
       </c>

--- a/予定・進捗.xlsx
+++ b/予定・進捗.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="0" windowWidth="20200" windowHeight="10640"/>
+    <workbookView xWindow="1400" yWindow="0" windowWidth="2900" windowHeight="4040"/>
   </bookViews>
   <sheets>
     <sheet name="出席データ" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
   <si>
     <t>池田</t>
     <rPh sb="0" eb="2">
@@ -176,13 +176,6 @@
   </si>
   <si>
     <t>~16:40</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全</t>
-    <rPh sb="0" eb="1">
-      <t>ゼン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -270,61 +263,51 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>警察</t>
+    <t>1限レビュー</t>
+    <rPh sb="1" eb="2">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中止</t>
+    <rPh sb="0" eb="2">
+      <t>チュウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>警察へ</t>
     <rPh sb="0" eb="2">
       <t>ケイサツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>中止</t>
-    <rPh sb="0" eb="2">
-      <t>チュウシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VSDL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>特別課題</t>
-    <rPh sb="0" eb="2">
-      <t>トクベツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>github:○</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全</t>
-    <rPh sb="0" eb="1">
-      <t>ゼン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>09:30~16:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>特別課題:github
-CSS</t>
-    <rPh sb="0" eb="2">
-      <t>トクベツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カダイ</t>
-    </rPh>
+    <t>ＶＳＤＬ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除フラグ・ＣＳＳ</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>09:30~16:30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -332,7 +315,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +331,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -357,7 +349,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -365,29 +357,285 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -670,183 +918,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6328125" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="8" max="8" width="26.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>42747</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H4" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>42748</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>42752</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="26" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>42747</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>42753</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>42754</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>42759</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>42760</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>42761</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>42801</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>42748</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="26" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>42752</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>42753</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>42754</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>42759</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>42760</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>42761</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>42801</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/予定・進捗.xlsx
+++ b/予定・進捗.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="0" windowWidth="2900" windowHeight="4040"/>
+    <workbookView xWindow="1400" yWindow="0" windowWidth="12780" windowHeight="9530"/>
   </bookViews>
   <sheets>
     <sheet name="出席データ" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
   <si>
     <t>池田</t>
     <rPh sb="0" eb="2">
@@ -215,13 +215,6 @@
   </si>
   <si>
     <t>課題２</t>
-    <rPh sb="0" eb="2">
-      <t>カダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題３</t>
     <rPh sb="0" eb="2">
       <t>カダイ</t>
     </rPh>
@@ -292,22 +285,79 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>削除フラグ・ＣＳＳ</t>
+    <t>09:30~16:30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページは表示しなくなったが、
+リストにはまだ表示する</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題３（その他）</t>
     <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発生課題</t>
+    <rPh sb="0" eb="2">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>github
+削除フラグ・ＣＳＳ</t>
+    <rPh sb="7" eb="9">
       <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>09:30~16:30</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>○</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>○</t>
+    <t>githubの反映はできた</t>
+    <rPh sb="7" eb="9">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曲のwikiアプリがフィルタエラー</t>
+    <rPh sb="0" eb="1">
+      <t>キョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曲のwiki</t>
+    <rPh sb="0" eb="1">
+      <t>キョク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -349,7 +399,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -565,13 +615,84 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="medium">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -637,6 +758,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -918,20 +1066,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.6328125" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="8" max="8" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="33.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>24</v>
       </c>
@@ -942,8 +1090,9 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -952,8 +1101,9 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -975,107 +1125,125 @@
       <c r="G3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+      <c r="H3" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>42747</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" spans="1:9" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>42748</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H5" s="25"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>42752</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="G6" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H6" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>42753</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H7" s="27"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>42754</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H8" s="27"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>42759</v>
       </c>
@@ -1083,13 +1251,14 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H9" s="27"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>42760</v>
       </c>
@@ -1097,29 +1266,31 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H10" s="27"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>42761</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="27"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>42801</v>
       </c>
@@ -1131,7 +1302,8 @@
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/予定・進捗.xlsx
+++ b/予定・進捗.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="0" windowWidth="12780" windowHeight="9530"/>
+    <workbookView xWindow="1400" yWindow="0" windowWidth="20200" windowHeight="10640"/>
   </bookViews>
   <sheets>
     <sheet name="出席データ" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>池田</t>
     <rPh sb="0" eb="2">
@@ -357,6 +357,58 @@
     <t>曲のwiki</t>
     <rPh sb="0" eb="1">
       <t>キョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JVMのバージョンが違う</t>
+    <rPh sb="10" eb="11">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除フラグがついた記事の非表示成功</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイドメニューのサンプルで試しているらしい</t>
+    <rPh sb="13" eb="14">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページがいきなり編集画面
+JVMのバージョンを合わせる
+存在しないページのエラーページ</t>
+    <rPh sb="11" eb="13">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ソンザイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -741,6 +793,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -760,31 +836,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1068,36 +1120,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="9" width="33.7265625" customWidth="1"/>
+    <col min="6" max="6" width="40.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="33.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -1125,7 +1179,7 @@
       <c r="G3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="17" t="s">
         <v>46</v>
       </c>
       <c r="I3" s="7" t="s">
@@ -1157,7 +1211,7 @@
       <c r="H4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="29"/>
+      <c r="I4" s="22"/>
     </row>
     <row r="5" spans="1:9" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
@@ -1177,14 +1231,14 @@
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="25"/>
+      <c r="H5" s="18"/>
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>42752</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="23" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1199,32 +1253,44 @@
       <c r="F6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="39" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>42753</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="10"/>
+      <c r="F7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
@@ -1238,9 +1304,8 @@
       <c r="E8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="27"/>
+      <c r="H8" s="20"/>
       <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1255,7 +1320,7 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="27"/>
+      <c r="H9" s="20"/>
       <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1270,7 +1335,7 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="27"/>
+      <c r="H10" s="20"/>
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1287,7 +1352,7 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="27"/>
+      <c r="H11" s="20"/>
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1302,7 +1367,7 @@
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="28"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="13"/>
     </row>
   </sheetData>

--- a/予定・進捗.xlsx
+++ b/予定・進捗.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="0" windowWidth="20200" windowHeight="10640"/>
+    <workbookView xWindow="10500" yWindow="0" windowWidth="20200" windowHeight="10640"/>
   </bookViews>
   <sheets>
     <sheet name="出席データ" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="100">
   <si>
     <t>池田</t>
     <rPh sb="0" eb="2">
@@ -203,20 +203,6 @@
     <t>小澤</t>
     <rPh sb="0" eb="2">
       <t>オザワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題１</t>
-    <rPh sb="0" eb="2">
-      <t>カダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題２</t>
-    <rPh sb="0" eb="2">
-      <t>カダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -253,13 +239,6 @@
   </si>
   <si>
     <t>ガイダンス・エラーページ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1限レビュー</t>
-    <rPh sb="1" eb="2">
-      <t>ゲン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -397,27 +376,6 @@
   </si>
   <si>
     <t>○</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題４</t>
-    <rPh sb="0" eb="2">
-      <t>カダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題５</t>
-    <rPh sb="0" eb="2">
-      <t>カダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題３</t>
-    <rPh sb="0" eb="2">
-      <t>カダイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -492,15 +450,43 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>課題6</t>
-    <rPh sb="0" eb="2">
-      <t>カダイ</t>
-    </rPh>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JSPに更新日時表示</t>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WIKI_HISTORY表作成
+（numberはまだnull）</t>
+    <rPh sb="12" eb="13">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11:00~12:30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>削除キーの実装
-history表を作る
 サイドメニューを作る</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
@@ -508,19 +494,365 @@
     <rPh sb="5" eb="7">
       <t>ジッソウ</t>
     </rPh>
-    <rPh sb="15" eb="16">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
+    <rPh sb="16" eb="17">
       <t>ツク</t>
     </rPh>
-    <rPh sb="28" eb="29">
-      <t>ツク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>github同期
+history表を作る
+refar.jspに更新日時表示</t>
+    <rPh sb="6" eb="8">
+      <t>ドウキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>節</t>
+    <rPh sb="0" eb="1">
+      <t>セツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第1節</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>セツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第2節</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>セツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第3節</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>セツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題１（CSS）</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題２（削除フラグ）</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題４（トップページ現象）</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題５（エラーページ）</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付のフォーマット</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調べただけ</t>
+    <rPh sb="0" eb="1">
+      <t>シラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1限レビュー
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>削除キーの実装
+サイドメニューを作る</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題３（メニュー）</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ｃ＃課題</t>
+    <rPh sb="2" eb="4">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第4節</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>セツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>indexがwelcomeの表示ページに飛ぶ奴なので
+listページに移動に変更</t>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヤツ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイドメニューの仕分け線作成</t>
+    <rPh sb="8" eb="10">
+      <t>シワ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除キー実装完了</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題６（Ｈｉｓｔｏｒｙ）</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ＨｉｓｔｏｒｙＳｅｒｖｅｒｔ作成決定
+Historyページ作成
+</t>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>historyservlet実装
+削除キーのチェック</t>
+    <rPh sb="14" eb="16">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11:00~16:30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wiki_historyページに更新履歴実装
+HistoryDAO作成</t>
+    <rPh sb="16" eb="18">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1限レビュー</t>
+  </si>
+  <si>
+    <t>サイドメニュー固定成功</t>
+    <rPh sb="7" eb="9">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイドメニュー基盤完成</t>
+    <rPh sb="7" eb="9">
+      <t>キバン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新履歴に削除済みは非表示化</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>バ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日時のフォーマット
+上の隙間</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>スキマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイドメニュー作成
+更新履歴ページ作成　</t>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>コウシンリレキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除キーチェック</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13:30~16:30</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -528,7 +860,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,6 +893,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -570,7 +911,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -594,8 +935,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
@@ -612,8 +953,8 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
@@ -627,113 +968,29 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,19 +1112,6 @@
       </bottom>
       <diagonal style="medium">
         <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal style="thin">
-        <color auto="1"/>
       </diagonal>
     </border>
     <border diagonalUp="1" diagonalDown="1">
@@ -907,13 +1151,146 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -923,9 +1300,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -935,110 +1309,137 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1320,334 +1721,510 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="40.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="33.7265625" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.7265625" customWidth="1"/>
+    <col min="10" max="10" width="43.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="33.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+    <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="33">
+        <v>42747</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="17" t="s">
+      <c r="I4" s="29"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="18"/>
+    </row>
+    <row r="5" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="46"/>
+      <c r="B5" s="33">
+        <v>42748</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="11"/>
+    </row>
+    <row r="6" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="46"/>
+      <c r="B6" s="33">
+        <v>42752</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="25"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="47"/>
+      <c r="B7" s="33">
+        <v>42753</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="33">
+        <v>42754</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="17" t="s">
+      <c r="J8" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="17" t="s">
+    </row>
+    <row r="9" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="46"/>
+      <c r="B9" s="33">
+        <v>42759</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="D9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="7" t="s">
-        <v>46</v>
+      <c r="N9" s="20" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
-        <v>42747</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="1" t="s">
+    <row r="10" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="47"/>
+      <c r="B10" s="33">
+        <v>42760</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="9" t="s">
+      <c r="G10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="33">
+        <v>42761</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="22"/>
+      <c r="G11" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>42748</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="1" t="s">
+    <row r="12" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="46"/>
+      <c r="B12" s="33">
+        <v>42766</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="15"/>
+      <c r="E12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>42752</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" s="24" t="s">
-        <v>49</v>
-      </c>
+    <row r="13" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="46"/>
+      <c r="B13" s="33">
+        <v>42767</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="7"/>
     </row>
-    <row r="7" spans="1:13" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>42753</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>54</v>
-      </c>
+    <row r="14" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="33">
+        <v>42768</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="7"/>
     </row>
-    <row r="8" spans="1:13" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>42754</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
-        <v>42760</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="1:13" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <v>42761</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="10"/>
-    </row>
-    <row r="11" spans="1:13" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="10"/>
-    </row>
-    <row r="12" spans="1:13" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+    <row r="15" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36"/>
+      <c r="B15" s="34">
         <v>42801</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="C15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="13"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E2"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/予定・進捗.xlsx
+++ b/予定・進捗.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="0" windowWidth="20200" windowHeight="10640"/>
+    <workbookView xWindow="12320" yWindow="0" windowWidth="20200" windowHeight="10640"/>
   </bookViews>
   <sheets>
     <sheet name="出席データ" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="106">
   <si>
     <t>池田</t>
     <rPh sb="0" eb="2">
@@ -850,6 +850,50 @@
       <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13:30~16:30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キー実装準備</t>
+    <rPh sb="2" eb="4">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除サーブレットえくぜきゅーたー作成</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第5節</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>セツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1限レビュー</t>
+    <rPh sb="1" eb="2">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11:00~16:30</t>
   </si>
   <si>
     <t>13:30~16:30</t>
@@ -911,7 +955,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1263,25 +1307,34 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1290,7 +1343,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1411,8 +1464,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1435,10 +1491,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1721,10 +1783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1735,18 +1797,19 @@
     <col min="8" max="8" width="35.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="33.7265625" customWidth="1"/>
     <col min="10" max="10" width="43.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="33.7265625" customWidth="1"/>
+    <col min="11" max="13" width="33.7265625" customWidth="1"/>
+    <col min="14" max="14" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -1757,12 +1820,12 @@
       <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="45"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -1817,7 +1880,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="46" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="33">
@@ -1851,7 +1914,7 @@
       <c r="N4" s="18"/>
     </row>
     <row r="5" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="33">
         <v>42748</v>
       </c>
@@ -1877,7 +1940,7 @@
       <c r="N5" s="11"/>
     </row>
     <row r="6" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="33">
         <v>42752</v>
       </c>
@@ -1911,7 +1974,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="33">
         <v>42753</v>
       </c>
@@ -1945,7 +2008,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="46" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="33">
@@ -1989,7 +2052,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="33">
         <v>42759</v>
       </c>
@@ -2031,7 +2094,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="33">
         <v>42760</v>
       </c>
@@ -2071,7 +2134,7 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="46" t="s">
         <v>68</v>
       </c>
       <c r="B11" s="33">
@@ -2115,11 +2178,11 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="33">
         <v>42766</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="41" t="s">
         <v>97</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -2157,39 +2220,62 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="33">
         <v>42767</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F13" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="7"/>
+      <c r="G13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="14" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+    <row r="14" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="46" t="s">
         <v>82</v>
       </c>
       <c r="B14" s="33">
         <v>42768</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="52" t="s">
         <v>91</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
+      <c r="F14" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="16"/>
@@ -2199,32 +2285,95 @@
       <c r="M14" s="16"/>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="34">
+    <row r="15" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="47"/>
+      <c r="B15" s="33">
+        <v>42773</v>
+      </c>
+      <c r="C15" s="52"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="51"/>
+    </row>
+    <row r="16" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="48"/>
+      <c r="B16" s="33">
+        <v>42774</v>
+      </c>
+      <c r="C16" s="52"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="51"/>
+    </row>
+    <row r="17" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="33">
+        <v>42775</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="51"/>
+    </row>
+    <row r="18" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36"/>
+      <c r="B18" s="34">
         <v>42801</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="9"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/予定・進捗.xlsx
+++ b/予定・進捗.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12320" yWindow="0" windowWidth="20200" windowHeight="10640"/>
+    <workbookView xWindow="13960" yWindow="0" windowWidth="20200" windowHeight="10640"/>
   </bookViews>
   <sheets>
     <sheet name="出席データ" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="109">
   <si>
     <t>池田</t>
     <rPh sb="0" eb="2">
@@ -765,9 +765,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1限レビュー</t>
-  </si>
-  <si>
     <t>サイドメニュー固定成功</t>
     <rPh sb="7" eb="9">
       <t>コテイ</t>
@@ -897,6 +894,47 @@
   </si>
   <si>
     <t>13:30~16:30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1限レビュー
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>削除キーのつづき
+背景色</t>
+    </r>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ハイケイショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景色</t>
+    <rPh sb="0" eb="3">
+      <t>ハイケイショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DeleteExcecuterの
+accessor.Update(sql);でエラー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1470,6 +1508,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1490,18 +1540,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1786,7 +1824,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1802,14 +1840,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -1820,12 +1858,12 @@
       <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="45"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -1880,7 +1918,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="50" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="33">
@@ -1914,7 +1952,7 @@
       <c r="N4" s="18"/>
     </row>
     <row r="5" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="33">
         <v>42748</v>
       </c>
@@ -1940,7 +1978,7 @@
       <c r="N5" s="11"/>
     </row>
     <row r="6" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="33">
         <v>42752</v>
       </c>
@@ -1974,7 +2012,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="33">
         <v>42753</v>
       </c>
@@ -2008,7 +2046,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="50" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="33">
@@ -2052,7 +2090,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="33">
         <v>42759</v>
       </c>
@@ -2094,7 +2132,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="33">
         <v>42760</v>
       </c>
@@ -2134,7 +2172,7 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="50" t="s">
         <v>68</v>
       </c>
       <c r="B11" s="33">
@@ -2178,12 +2216,12 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="33">
         <v>42766</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>39</v>
@@ -2195,16 +2233,16 @@
         <v>89</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="K12" s="30" t="s">
         <v>27</v>
@@ -2216,16 +2254,16 @@
         <v>27</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="33">
         <v>42767</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>39</v>
@@ -2234,13 +2272,13 @@
         <v>39</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I13" s="30" t="s">
         <v>27</v>
@@ -2258,94 +2296,112 @@
         <v>27</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="50" t="s">
         <v>82</v>
       </c>
       <c r="B14" s="33">
         <v>42768</v>
       </c>
-      <c r="C14" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="F14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
+        <v>103</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="30" t="s">
+        <v>27</v>
+      </c>
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="33">
         <v>42773</v>
       </c>
-      <c r="C15" s="52"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="51"/>
+        <v>103</v>
+      </c>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="44"/>
     </row>
     <row r="16" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="33">
         <v>42774</v>
       </c>
-      <c r="C16" s="52"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="51"/>
+        <v>104</v>
+      </c>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="44"/>
     </row>
     <row r="17" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B17" s="33">
         <v>42775</v>
       </c>
-      <c r="C17" s="52" t="s">
-        <v>103</v>
+      <c r="C17" s="45" t="s">
+        <v>102</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="51"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="44"/>
     </row>
     <row r="18" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>

--- a/予定・進捗.xlsx
+++ b/予定・進捗.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13960" yWindow="0" windowWidth="20200" windowHeight="10640"/>
+    <workbookView xWindow="15600" yWindow="0" windowWidth="20200" windowHeight="10640"/>
   </bookViews>
   <sheets>
     <sheet name="出席データ" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="116">
   <si>
     <t>池田</t>
     <rPh sb="0" eb="2">
@@ -558,16 +558,6 @@
     <t>課題１（CSS）</t>
     <rPh sb="0" eb="2">
       <t>カダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題２（削除フラグ）</t>
-    <rPh sb="0" eb="2">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -935,6 +925,72 @@
   <si>
     <t>DeleteExcecuterの
 accessor.Update(sql);でエラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パス照合成功！</t>
+    <rPh sb="2" eb="4">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題２（削除フラグ・キー）</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除キー
+nullページエラーページ</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>存在しない記事のエラーページ作成成功</t>
+    <rPh sb="0" eb="2">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付のフォーマット</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C＃制作</t>
+    <rPh sb="2" eb="4">
+      <t>セイサク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1381,7 +1437,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1539,6 +1595,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1823,19 +1885,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="33.7265625" customWidth="1"/>
     <col min="10" max="10" width="43.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="33.7265625" customWidth="1"/>
+    <col min="11" max="11" width="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="33.7265625" customWidth="1"/>
     <col min="14" max="14" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1896,19 +1960,19 @@
         <v>69</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" s="13" t="s">
+      <c r="K3" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="13" t="s">
-        <v>72</v>
-      </c>
       <c r="L3" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M3" s="13" t="s">
         <v>53</v>
@@ -1944,10 +2008,12 @@
       </c>
       <c r="I4" s="29"/>
       <c r="J4" s="23"/>
-      <c r="K4" s="24"/>
+      <c r="K4" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="L4" s="24"/>
-      <c r="M4" s="6" t="s">
-        <v>30</v>
+      <c r="M4" s="39" t="s">
+        <v>74</v>
       </c>
       <c r="N4" s="18"/>
     </row>
@@ -2128,7 +2194,7 @@
         <v>59</v>
       </c>
       <c r="N9" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2140,34 +2206,34 @@
         <v>63</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="39" t="s">
-        <v>75</v>
-      </c>
       <c r="I10" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N10" s="7"/>
     </row>
@@ -2179,40 +2245,40 @@
         <v>42761</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G11" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="I11" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L11" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2221,7 +2287,7 @@
         <v>42766</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>39</v>
@@ -2230,31 +2296,31 @@
         <v>39</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="K12" s="30" t="s">
         <v>27</v>
       </c>
       <c r="L12" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M12" s="30" t="s">
         <v>27</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2263,7 +2329,7 @@
         <v>42767</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>39</v>
@@ -2272,13 +2338,13 @@
         <v>39</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I13" s="30" t="s">
         <v>27</v>
@@ -2296,33 +2362,33 @@
         <v>27</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="33">
         <v>42768</v>
       </c>
       <c r="C14" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="19" t="s">
         <v>107</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>108</v>
       </c>
       <c r="I14" s="30" t="s">
         <v>27</v>
@@ -2346,20 +2412,42 @@
       <c r="B15" s="33">
         <v>42773</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="F15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="44"/>
+        <v>102</v>
+      </c>
+      <c r="G15" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="L15" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="M15" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" s="44" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="52"/>
@@ -2370,7 +2458,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G16" s="42"/>
       <c r="H16" s="42"/>
@@ -2383,13 +2471,13 @@
     </row>
     <row r="17" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B17" s="33">
         <v>42775</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>

--- a/予定・進捗.xlsx
+++ b/予定・進捗.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15600" yWindow="0" windowWidth="20200" windowHeight="10640"/>
+    <workbookView xWindow="17240" yWindow="0" windowWidth="20200" windowHeight="10640"/>
   </bookViews>
   <sheets>
     <sheet name="出席データ" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="117">
   <si>
     <t>池田</t>
     <rPh sb="0" eb="2">
@@ -873,13 +873,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1限レビュー</t>
-    <rPh sb="1" eb="2">
-      <t>ゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>11:00~16:30</t>
   </si>
   <si>
@@ -991,6 +984,15 @@
     <rPh sb="2" eb="4">
       <t>セイサク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSS
+github</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1576,6 +1578,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1595,12 +1603,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1885,8 +1887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1904,14 +1906,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -1922,12 +1924,12 @@
       <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -1960,7 +1962,7 @@
         <v>69</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>77</v>
@@ -1982,7 +1984,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="33">
@@ -2018,7 +2020,7 @@
       <c r="N4" s="18"/>
     </row>
     <row r="5" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="51"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="33">
         <v>42748</v>
       </c>
@@ -2044,7 +2046,7 @@
       <c r="N5" s="11"/>
     </row>
     <row r="6" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="33">
         <v>42752</v>
       </c>
@@ -2078,7 +2080,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="33">
         <v>42753</v>
       </c>
@@ -2112,7 +2114,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="52" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="33">
@@ -2156,7 +2158,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="51"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="33">
         <v>42759</v>
       </c>
@@ -2198,7 +2200,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="33">
         <v>42760</v>
       </c>
@@ -2238,7 +2240,7 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="52" t="s">
         <v>68</v>
       </c>
       <c r="B11" s="33">
@@ -2282,7 +2284,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="51"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="33">
         <v>42766</v>
       </c>
@@ -2324,7 +2326,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="33">
         <v>42767</v>
       </c>
@@ -2366,29 +2368,29 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="52" t="s">
         <v>81</v>
       </c>
       <c r="B14" s="33">
         <v>42768</v>
       </c>
       <c r="C14" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="19" t="s">
         <v>106</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>107</v>
       </c>
       <c r="I14" s="30" t="s">
         <v>27</v>
@@ -2408,57 +2410,59 @@
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="33">
         <v>42773</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G15" s="53" t="s">
-        <v>110</v>
+        <v>101</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>109</v>
       </c>
       <c r="H15" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="I15" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="I15" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="J15" s="54" t="s">
+      <c r="J15" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="K15" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="L15" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="M15" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" s="44" t="s">
         <v>113</v>
-      </c>
-      <c r="K15" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="L15" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="M15" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="N15" s="44" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="33">
         <v>42774</v>
       </c>
-      <c r="C16" s="45"/>
+      <c r="C16" s="41" t="s">
+        <v>115</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G16" s="42"/>
       <c r="H16" s="42"/>
@@ -2477,7 +2481,7 @@
         <v>42775</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>

--- a/予定・進捗.xlsx
+++ b/予定・進捗.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17240" yWindow="0" windowWidth="20200" windowHeight="10640"/>
+    <workbookView xWindow="22160" yWindow="0" windowWidth="20200" windowHeight="10640"/>
   </bookViews>
   <sheets>
     <sheet name="出席データ" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="123">
   <si>
     <t>池田</t>
     <rPh sb="0" eb="2">
@@ -182,13 +182,6 @@
     <t>発表</t>
     <rPh sb="0" eb="2">
       <t>ハッピョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>進捗報告</t>
-    <rPh sb="0" eb="4">
-      <t>シンチョクホウコク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -992,7 +985,122 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>背景画像用意</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秒の小数点を1桁まで表示</t>
+    <rPh sb="0" eb="1">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外枠空白作成成功</t>
+    <rPh sb="0" eb="2">
+      <t>ソトワク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗報告（5期）</t>
+    <rPh sb="0" eb="4">
+      <t>シンチョクホウコク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルにつける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルにつけたぐらい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1限レビュー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+外枠に空白を入れる
+日時フォーマットを変更</t>
+    </r>
+    <rPh sb="7" eb="9">
+      <t>ソトワク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス図・タイトルを決める</t>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1000,7 +1108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1042,6 +1150,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1051,7 +1175,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1433,13 +1557,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1560,50 +1695,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1885,17 +2029,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="33.7265625" customWidth="1"/>
@@ -1905,15 +2049,15 @@
     <col min="14" max="14" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49"/>
+    <row r="1" spans="1:14" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -1923,13 +2067,13 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51"/>
+    <row r="2" spans="1:14" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -1941,7 +2085,7 @@
     </row>
     <row r="3" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>19</v>
@@ -1950,91 +2094,91 @@
         <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="J3" s="13" t="s">
+      <c r="K3" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="13" t="s">
-        <v>71</v>
-      </c>
       <c r="L3" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
-        <v>66</v>
+      <c r="A4" s="49" t="s">
+        <v>65</v>
       </c>
       <c r="B4" s="33">
         <v>42747</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" s="29"/>
       <c r="J4" s="23"/>
       <c r="K4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L4" s="24"/>
       <c r="M4" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N4" s="18"/>
     </row>
     <row r="5" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="33">
         <v>42748</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -2046,477 +2190,570 @@
       <c r="N5" s="11"/>
     </row>
     <row r="6" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="53"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="33">
         <v>42752</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>42</v>
       </c>
       <c r="I6" s="25"/>
       <c r="J6" s="26"/>
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
       <c r="M6" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="20" t="s">
         <v>45</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="33">
         <v>42753</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I7" s="29"/>
       <c r="J7" s="29"/>
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
       <c r="M7" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="52" t="s">
-        <v>67</v>
+      <c r="A8" s="49" t="s">
+        <v>66</v>
       </c>
       <c r="B8" s="33">
         <v>42754</v>
       </c>
       <c r="C8" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="N8" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="I8" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="L8" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="M8" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="53"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="33">
         <v>42759</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N9" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="33">
         <v>42760</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="L10" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>80</v>
       </c>
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="52" t="s">
-        <v>68</v>
+      <c r="A11" s="49" t="s">
+        <v>67</v>
       </c>
       <c r="B11" s="33">
         <v>42761</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="K11" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="31" t="s">
+      <c r="N11" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="53"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="33">
         <v>42766</v>
       </c>
-      <c r="C12" s="41" t="s">
-        <v>95</v>
+      <c r="C12" s="40" t="s">
+        <v>94</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="J12" s="2" t="s">
+      <c r="M12" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="K12" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="M12" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="33">
         <v>42767</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="I13" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="52" t="s">
-        <v>81</v>
+      <c r="A14" s="49" t="s">
+        <v>80</v>
       </c>
       <c r="B14" s="33">
         <v>42768</v>
       </c>
       <c r="C14" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H14" s="19" t="s">
-        <v>106</v>
-      </c>
       <c r="I14" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M14" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="53"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="33">
         <v>42773</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="I15" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="J15" s="47" t="s">
+      <c r="L15" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="M15" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="N15" s="43" t="s">
         <v>112</v>
-      </c>
-      <c r="K15" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="L15" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="M15" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="N15" s="44" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="33">
         <v>42774</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="44"/>
+      <c r="H16" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="43"/>
     </row>
-    <row r="17" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
-        <v>100</v>
+    <row r="17" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="49" t="s">
+        <v>99</v>
       </c>
       <c r="B17" s="33">
         <v>42775</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="44"/>
+      <c r="N17" s="43"/>
     </row>
-    <row r="18" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="34">
+    <row r="18" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="50"/>
+      <c r="B18" s="46">
+        <v>42780</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="43"/>
+    </row>
+    <row r="19" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="51"/>
+      <c r="B19" s="46">
+        <v>42781</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="43"/>
+    </row>
+    <row r="20" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="34">
         <v>42801</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="9"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A10"/>
